--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.0794944485295</v>
+        <v>123.2376062076999</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.9872265650212</v>
+        <v>168.6191296727733</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.9631824858718</v>
+        <v>152.5263565952855</v>
       </c>
       <c r="AD2" t="n">
-        <v>92079.4944485295</v>
+        <v>123237.6062076999</v>
       </c>
       <c r="AE2" t="n">
-        <v>125987.2265650212</v>
+        <v>168619.1296727733</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280406658189958e-06</v>
+        <v>7.236239833187593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.733796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>113963.1824858718</v>
+        <v>152526.3565952855</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.90177899704682</v>
+        <v>87.7307474062082</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.53796552190781</v>
+        <v>120.037079008541</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.80171056686068</v>
+        <v>108.5809086610956</v>
       </c>
       <c r="AD3" t="n">
-        <v>66901.77899704681</v>
+        <v>87730.74740620819</v>
       </c>
       <c r="AE3" t="n">
-        <v>91537.96552190781</v>
+        <v>120037.079008541</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.457238828744668e-06</v>
+        <v>9.225733007451946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.71141975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>82801.71056686068</v>
+        <v>108580.9086610956</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.71274070456695</v>
+        <v>83.37111691313612</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.80633852281332</v>
+        <v>114.0720402345996</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.61710200416893</v>
+        <v>103.1851648157529</v>
       </c>
       <c r="AD4" t="n">
-        <v>62712.74070456695</v>
+        <v>83371.11691313612</v>
       </c>
       <c r="AE4" t="n">
-        <v>85806.33852281333</v>
+        <v>114072.0402345996</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.857639063853073e-06</v>
+        <v>9.902629471241281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.460648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>77617.10200416893</v>
+        <v>103185.1648157529</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.02988922668851</v>
+        <v>100.1257735683879</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.500425109442</v>
+        <v>136.9965006335877</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.04985822183674</v>
+        <v>123.9217468889511</v>
       </c>
       <c r="AD2" t="n">
-        <v>80029.88922668851</v>
+        <v>100125.7735683879</v>
       </c>
       <c r="AE2" t="n">
-        <v>109500.425109442</v>
+        <v>136996.5006335877</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.010161862391329e-06</v>
+        <v>8.676553259324057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.182098765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>99049.85822183674</v>
+        <v>123921.7468889511</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.57105955094352</v>
+        <v>79.58160303807131</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.50775176723737</v>
+        <v>108.8870601691855</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.72876633543939</v>
+        <v>98.49503197061492</v>
       </c>
       <c r="AD3" t="n">
-        <v>59571.05955094352</v>
+        <v>79581.60303807131</v>
       </c>
       <c r="AE3" t="n">
-        <v>81507.75176723737</v>
+        <v>108887.0601691855</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.102348679711733e-06</v>
+        <v>1.056799256805111e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.433641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>73728.76633543939</v>
+        <v>98495.03197061492</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.65604936358908</v>
+        <v>79.66659285071687</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.62403857838487</v>
+        <v>109.0033469803329</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.83395489654058</v>
+        <v>98.6002205317161</v>
       </c>
       <c r="AD4" t="n">
-        <v>59656.04936358907</v>
+        <v>79666.59285071687</v>
       </c>
       <c r="AE4" t="n">
-        <v>81624.03857838488</v>
+        <v>109003.3469803329</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.104250213741787e-06</v>
+        <v>1.057128562758479e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.433641975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>73833.95489654057</v>
+        <v>98600.2205317161</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.54918304450967</v>
+        <v>70.77991426994015</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.90011054781137</v>
+        <v>96.84420129353104</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.03806490958318</v>
+        <v>87.60152664379058</v>
       </c>
       <c r="AD2" t="n">
-        <v>52549.18304450967</v>
+        <v>70779.91426994016</v>
       </c>
       <c r="AE2" t="n">
-        <v>71900.11054781136</v>
+        <v>96844.20129353105</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.457350041699509e-06</v>
+        <v>1.221869583423995e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.622685185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>65038.06490958319</v>
+        <v>87601.52664379058</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.20287918129371</v>
+        <v>74.19614073923839</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.53101467496842</v>
+        <v>101.5184330620976</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.32244064285149</v>
+        <v>91.82965629269208</v>
       </c>
       <c r="AD2" t="n">
-        <v>55202.87918129371</v>
+        <v>74196.14073923838</v>
       </c>
       <c r="AE2" t="n">
-        <v>75531.01467496842</v>
+        <v>101518.4330620976</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.369975656623668e-06</v>
+        <v>1.160471224830602e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.510802469135802</v>
       </c>
       <c r="AH2" t="n">
-        <v>68322.44064285149</v>
+        <v>91829.65629269207</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.97561743964324</v>
+        <v>73.79828679699571</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.22006513396198</v>
+        <v>100.9740717462442</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.04116768961819</v>
+        <v>91.33724805680772</v>
       </c>
       <c r="AD3" t="n">
-        <v>54975.61743964325</v>
+        <v>73798.28679699572</v>
       </c>
       <c r="AE3" t="n">
-        <v>75220.06513396198</v>
+        <v>100974.0717462442</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.41973701353264e-06</v>
+        <v>1.169536663368242e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.483796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>68041.16768961819</v>
+        <v>91337.24805680773</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.03650628501717</v>
+        <v>68.64180621915156</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.83039947088599</v>
+        <v>93.9187475317736</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.16588415298119</v>
+        <v>84.95527408315419</v>
       </c>
       <c r="AD2" t="n">
-        <v>51036.50628501717</v>
+        <v>68641.80621915156</v>
       </c>
       <c r="AE2" t="n">
-        <v>69830.399470886</v>
+        <v>93918.74753177361</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.350256839267717e-06</v>
+        <v>1.244445734924129e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.823302469135802</v>
       </c>
       <c r="AH2" t="n">
-        <v>63165.88415298119</v>
+        <v>84955.27408315419</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.34224148762695</v>
+        <v>102.6084031216382</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.6642874866384</v>
+        <v>140.3933439142291</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.9117660142632</v>
+        <v>126.9944002143886</v>
       </c>
       <c r="AD2" t="n">
-        <v>82342.24148762695</v>
+        <v>102608.4031216382</v>
       </c>
       <c r="AE2" t="n">
-        <v>112664.2874866384</v>
+        <v>140393.3439142291</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.845520113031201e-06</v>
+        <v>8.33662629401256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.286265432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>101911.7660142632</v>
+        <v>126994.4002143886</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.12285400959159</v>
+        <v>81.30367478903128</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.63098540589841</v>
+        <v>111.2432747112915</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.64936153560443</v>
+        <v>100.626372703791</v>
       </c>
       <c r="AD3" t="n">
-        <v>61122.85400959159</v>
+        <v>81303.67478903128</v>
       </c>
       <c r="AE3" t="n">
-        <v>83630.98540589842</v>
+        <v>111243.2747112915</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.959770065686661e-06</v>
+        <v>1.025367239777928e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.483796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>75649.36153560443</v>
+        <v>100626.372703791</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.50001438963087</v>
+        <v>80.68083516907056</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.77878876012385</v>
+        <v>110.3910780655169</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.8784973416368</v>
+        <v>99.85550850982337</v>
       </c>
       <c r="AD4" t="n">
-        <v>60500.01438963087</v>
+        <v>80680.83516907056</v>
       </c>
       <c r="AE4" t="n">
-        <v>82778.78876012385</v>
+        <v>110391.0780655169</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.02346456648354e-06</v>
+        <v>1.036325758940799e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.449074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>74878.4973416368</v>
+        <v>99855.50850982337</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.12036666787181</v>
+        <v>76.27006628769355</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.89109388145225</v>
+        <v>104.3560694926303</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.17096141278863</v>
+        <v>94.3964726849434</v>
       </c>
       <c r="AD2" t="n">
-        <v>59120.36666787181</v>
+        <v>76270.06628769355</v>
       </c>
       <c r="AE2" t="n">
-        <v>80891.09388145225</v>
+        <v>104356.0694926303</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.17147112413981e-06</v>
+        <v>1.237170362793197e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>73170.96141278863</v>
+        <v>94396.47268494341</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.10157990505645</v>
+        <v>94.64483204766552</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.757294873926</v>
+        <v>129.4972346428647</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.9502828719535</v>
+        <v>117.1382003190944</v>
       </c>
       <c r="AD2" t="n">
-        <v>75101.57990505645</v>
+        <v>94644.83204766552</v>
       </c>
       <c r="AE2" t="n">
-        <v>102757.294873926</v>
+        <v>129497.2346428647</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.346908832532843e-06</v>
+        <v>9.469772854634907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.039351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>92950.2828719535</v>
+        <v>117138.2003190944</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.45839353923894</v>
+        <v>76.91630482727636</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.61710892577821</v>
+        <v>105.2402815725193</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.11400238972546</v>
+        <v>95.19629680492754</v>
       </c>
       <c r="AD3" t="n">
-        <v>57458.39353923894</v>
+        <v>76916.30482727637</v>
       </c>
       <c r="AE3" t="n">
-        <v>78617.10892577822</v>
+        <v>105240.2815725193</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.241913337546063e-06</v>
+        <v>1.105489233802346e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.460648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>71114.00238972546</v>
+        <v>95196.29680492754</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.19435743776857</v>
+        <v>98.11348947939901</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.9889695378956</v>
+        <v>134.2432047673259</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.77809244518788</v>
+        <v>121.4312217158894</v>
       </c>
       <c r="AD2" t="n">
-        <v>78194.35743776857</v>
+        <v>98113.48947939901</v>
       </c>
       <c r="AE2" t="n">
-        <v>106988.9695378956</v>
+        <v>134243.204767326</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137221675265558e-06</v>
+        <v>8.958866023553838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.12037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>96778.09244518788</v>
+        <v>121431.2217158894</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.94509237249677</v>
+        <v>78.77888355955557</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.65127585796407</v>
+        <v>107.7887439651967</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.95403128487537</v>
+        <v>97.50153752363808</v>
       </c>
       <c r="AD3" t="n">
-        <v>58945.09237249677</v>
+        <v>78778.88355955557</v>
       </c>
       <c r="AE3" t="n">
-        <v>80651.27585796406</v>
+        <v>107788.7439651967</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.131243109095114e-06</v>
+        <v>1.069235260699187e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.452932098765432</v>
       </c>
       <c r="AH3" t="n">
-        <v>72954.03128487537</v>
+        <v>97501.53752363808</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.14950698621085</v>
+        <v>108.9096984884809</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.6100443402691</v>
+        <v>149.0150542286707</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.0991909857257</v>
+        <v>134.793266597069</v>
       </c>
       <c r="AD2" t="n">
-        <v>88149.50698621085</v>
+        <v>108909.6984884809</v>
       </c>
       <c r="AE2" t="n">
-        <v>120610.0443402691</v>
+        <v>149015.0542286707</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.489267596157335e-06</v>
+        <v>7.631457381067892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>109099.1909857257</v>
+        <v>134793.266597069</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.93547460735348</v>
+        <v>86.6103252550519</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.21582522558907</v>
+        <v>118.504067991793</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.60575348478663</v>
+        <v>107.1942060641911</v>
       </c>
       <c r="AD3" t="n">
-        <v>65935.47460735348</v>
+        <v>86610.32525505191</v>
       </c>
       <c r="AE3" t="n">
-        <v>90215.82522558907</v>
+        <v>118504.067991793</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.522092421055682e-06</v>
+        <v>9.387191131505791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.699845679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>81605.75348478663</v>
+        <v>107194.2060641911</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.44846498999507</v>
+        <v>81.9527234371013</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.07650071422887</v>
+        <v>112.1313317055859</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.05235748819263</v>
+        <v>101.4296747849461</v>
       </c>
       <c r="AD4" t="n">
-        <v>61448.46498999507</v>
+        <v>81952.7234371013</v>
       </c>
       <c r="AE4" t="n">
-        <v>84076.50071422887</v>
+        <v>112131.3317055859</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.976831798086784e-06</v>
+        <v>1.016021793397947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.41820987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>76052.35748819263</v>
+        <v>101429.6747849461</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.03446476753025</v>
+        <v>77.25075748983797</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.40531499479492</v>
+        <v>105.697894460446</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.82698317776962</v>
+        <v>95.61023576109434</v>
       </c>
       <c r="AD2" t="n">
-        <v>58034.46476753025</v>
+        <v>77250.75748983797</v>
       </c>
       <c r="AE2" t="n">
-        <v>79405.31499479493</v>
+        <v>105697.894460446</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.043185476240899e-06</v>
+        <v>1.089729347272576e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>71826.98317776962</v>
+        <v>95610.23576109434</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.77668622202282</v>
+        <v>74.82238674373835</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.31612278267363</v>
+        <v>102.3752904734778</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.0326191346637</v>
+        <v>92.6047364353374</v>
       </c>
       <c r="AD3" t="n">
-        <v>55776.68622202282</v>
+        <v>74822.38674373835</v>
       </c>
       <c r="AE3" t="n">
-        <v>76316.12278267363</v>
+        <v>102375.2904734778</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.366766991804552e-06</v>
+        <v>1.148078751759825e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>69032.61913466371</v>
+        <v>92604.7364353374</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.29297332581309</v>
+        <v>71.79641432476532</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.91779722440153</v>
+        <v>98.23502151335958</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.95862499809213</v>
+        <v>88.85960893386755</v>
       </c>
       <c r="AD2" t="n">
-        <v>53292.97332581309</v>
+        <v>71796.41432476533</v>
       </c>
       <c r="AE2" t="n">
-        <v>72917.79722440153</v>
+        <v>98235.02151335958</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.475101913182433e-06</v>
+        <v>1.208047045069477e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.553240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>65958.62499809213</v>
+        <v>88859.60893386755</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.5781716235304</v>
+        <v>69.51181691651557</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.57152988362765</v>
+        <v>95.10913455006951</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.83628211931408</v>
+        <v>86.03205223514298</v>
       </c>
       <c r="AD2" t="n">
-        <v>51578.1716235304</v>
+        <v>69511.81691651557</v>
       </c>
       <c r="AE2" t="n">
-        <v>70571.52988362765</v>
+        <v>95109.13455006952</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.468499393271498e-06</v>
+        <v>1.243916420855536e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>63836.28211931408</v>
+        <v>86032.05223514298</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.51704785938871</v>
+        <v>75.23593001357317</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.06560647113876</v>
+        <v>102.941118619507</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.42425736233633</v>
+        <v>93.11656273725451</v>
       </c>
       <c r="AD2" t="n">
-        <v>58517.04785938871</v>
+        <v>75235.93001357316</v>
       </c>
       <c r="AE2" t="n">
-        <v>80065.60647113876</v>
+        <v>102941.118619507</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.825126325869347e-06</v>
+        <v>1.201490160659036e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.386574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>72424.25736233633</v>
+        <v>93116.56273725451</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.0924059153529</v>
+        <v>96.82760650970683</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.4812308502572</v>
+        <v>132.4838029590411</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.41425022177262</v>
+        <v>119.8397347468508</v>
       </c>
       <c r="AD2" t="n">
-        <v>77092.40591535289</v>
+        <v>96827.60650970682</v>
       </c>
       <c r="AE2" t="n">
-        <v>105481.2308502572</v>
+        <v>132483.8029590411</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202852738610548e-06</v>
+        <v>9.141207020770758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.108796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>95414.25022177261</v>
+        <v>119839.7347468508</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.0607009996975</v>
+        <v>77.7105607394798</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.44121256510701</v>
+        <v>106.3270175516933</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.8594547343537</v>
+        <v>96.17931622749305</v>
       </c>
       <c r="AD3" t="n">
-        <v>58060.7009996975</v>
+        <v>77710.5607394798</v>
       </c>
       <c r="AE3" t="n">
-        <v>79441.21256510701</v>
+        <v>106327.0175516933</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.213832289878367e-06</v>
+        <v>1.091745821145371e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>71859.4547343537</v>
+        <v>96179.31622749305</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.14723696601882</v>
+        <v>105.5777991648291</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.5022060478391</v>
+        <v>144.4562025810286</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.3833990145367</v>
+        <v>130.669505352288</v>
       </c>
       <c r="AD2" t="n">
-        <v>85147.23696601883</v>
+        <v>105577.7991648291</v>
       </c>
       <c r="AE2" t="n">
-        <v>116502.2060478391</v>
+        <v>144456.2025810286</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.666300183892924e-06</v>
+        <v>7.978853290786183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.41358024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>105383.3990145367</v>
+        <v>130669.505352288</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.39853669749049</v>
+        <v>83.91435024232133</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.74467485551475</v>
+        <v>114.8153160413535</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.46588483424095</v>
+        <v>103.8575034227045</v>
       </c>
       <c r="AD3" t="n">
-        <v>63398.53669749049</v>
+        <v>83914.35024232134</v>
       </c>
       <c r="AE3" t="n">
-        <v>86744.67485551475</v>
+        <v>114815.3160413535</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.739796368913008e-06</v>
+        <v>9.814412134184083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.587962962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>78465.88483424095</v>
+        <v>103857.5034227045</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.09333168946967</v>
+        <v>81.4385530337083</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.5905916650748</v>
+        <v>111.4278210760667</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.61282291671203</v>
+        <v>100.7933062225246</v>
       </c>
       <c r="AD4" t="n">
-        <v>61093.33168946967</v>
+        <v>81438.5530337083</v>
       </c>
       <c r="AE4" t="n">
-        <v>83590.5916650748</v>
+        <v>111427.8210760667</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.988220179021081e-06</v>
+        <v>1.023918916452439e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>75612.82291671203</v>
+        <v>100793.3062225246</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.68166602531527</v>
+        <v>82.95761246736059</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.23679724328589</v>
+        <v>113.5062652093612</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.52928536605802</v>
+        <v>102.6733865648528</v>
       </c>
       <c r="AD2" t="n">
-        <v>66681.66602531527</v>
+        <v>82957.6124673606</v>
       </c>
       <c r="AE2" t="n">
-        <v>91236.7972432859</v>
+        <v>113506.2652093612</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.104960095142152e-06</v>
+        <v>1.094228077981538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>82529.28536605801</v>
+        <v>102673.3865648528</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.10437669913374</v>
+        <v>72.86086464929227</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.02799511636869</v>
+        <v>99.69144940761063</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.96286716142285</v>
+        <v>90.17703739400115</v>
       </c>
       <c r="AD2" t="n">
-        <v>54104.37669913374</v>
+        <v>72860.86464929227</v>
       </c>
       <c r="AE2" t="n">
-        <v>74027.99511636869</v>
+        <v>99691.44940761063</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.444271695588171e-06</v>
+        <v>1.187313583700164e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.518518518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>66962.86716142285</v>
+        <v>90177.03739400115</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.5180664752375</v>
+        <v>80.94559495704199</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.17173253693834</v>
+        <v>110.7533340877967</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.13850051940142</v>
+        <v>100.1831913257664</v>
       </c>
       <c r="AD2" t="n">
-        <v>61518.06647523749</v>
+        <v>80945.59495704199</v>
       </c>
       <c r="AE2" t="n">
-        <v>84171.73253693833</v>
+        <v>110753.3340877967</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681466920768135e-06</v>
+        <v>1.014952603026526e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.842592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>76138.50051940142</v>
+        <v>100183.1913257664</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.46080424878205</v>
+        <v>75.71774052999433</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.25216324804239</v>
+        <v>103.6003530240539</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.87932521175901</v>
+        <v>93.71288073547295</v>
       </c>
       <c r="AD3" t="n">
-        <v>56460.80424878205</v>
+        <v>75717.74052999433</v>
       </c>
       <c r="AE3" t="n">
-        <v>77252.16324804239</v>
+        <v>103600.3530240539</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.331915897680311e-06</v>
+        <v>1.131150565887092e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.449074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>69879.32521175902</v>
+        <v>93712.88073547295</v>
       </c>
     </row>
   </sheetData>
